--- a/scripts/2022_01 AdhocTanja NovDez2021/data.xlsx
+++ b/scripts/2022_01 AdhocTanja NovDez2021/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://lichtblickit-my.sharepoint.com/personal/ruud_wijtvliet_lichtblick_de/Documents/Work_in_RM/python/2020_01_lichtblyck/scripts/2022_01 AdhocTanja NovDez2021/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="265" documentId="11_6591E93A46733CAEED66E4F54A5DCE3A8746E0B1" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0374CD9A-07A2-41D4-AC6C-B50313C5244A}"/>
+  <xr:revisionPtr revIDLastSave="302" documentId="11_6591E93A46733CAEED66E4F54A5DCE3A8746E0B1" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{741C1320-E3A6-4313-B99C-C78C6804FBC1}"/>
   <bookViews>
     <workbookView xWindow="1875" yWindow="-120" windowWidth="27045" windowHeight="16440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,7 +19,6 @@
   </sheets>
   <externalReferences>
     <externalReference r:id="rId4"/>
-    <externalReference r:id="rId5"/>
   </externalReferences>
   <definedNames>
     <definedName name="res_h">[1]Standardized_Formulas!$J$1</definedName>
@@ -96,16 +95,7 @@
     <t>2021-M12</t>
   </si>
   <si>
-    <t>Costs</t>
-  </si>
-  <si>
-    <t>Revenue</t>
-  </si>
-  <si>
     <t>Max</t>
-  </si>
-  <si>
-    <t>(Values: Profit)</t>
   </si>
   <si>
     <t>EUR</t>
@@ -172,12 +162,21 @@
   <si>
     <t>NOV</t>
   </si>
+  <si>
+    <t>Actual</t>
+  </si>
+  <si>
+    <t>(Values: Net result)</t>
+  </si>
+  <si>
+    <t>FSP2020</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="10">
+  <numFmts count="8">
     <numFmt numFmtId="164" formatCode="#,##0.00%;\-#,##0.00%"/>
     <numFmt numFmtId="165" formatCode="#,##0%;\-#,##0%"/>
     <numFmt numFmtId="166" formatCode="#,##0.0000;\-#,##0.0000"/>
@@ -185,9 +184,7 @@
     <numFmt numFmtId="168" formatCode="yyyy\-mm\-dd;;"/>
     <numFmt numFmtId="169" formatCode="mmm\ yyyy;;"/>
     <numFmt numFmtId="170" formatCode="yyyy\-mm\-dd"/>
-    <numFmt numFmtId="172" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
-    <numFmt numFmtId="174" formatCode="#,##0.00;\-#,##0.00"/>
-    <numFmt numFmtId="175" formatCode="#,##0;\-#,##0"/>
+    <numFmt numFmtId="171" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -253,10 +250,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="174" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyProtection="0">
+    <xf numFmtId="39" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="175" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyProtection="0">
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyProtection="0">
@@ -283,7 +280,7 @@
     <xf numFmtId="39" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="172" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
@@ -295,20 +292,17 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="174" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1">
+    <xf numFmtId="39" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="175" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1">
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="39" fontId="0" fillId="0" borderId="0" xfId="10" applyFont="1">
       <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -318,6 +312,9 @@
     </xf>
     <xf numFmtId="169" fontId="3" fillId="0" borderId="1" xfId="8" applyFont="1" applyBorder="1">
       <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -340,162 +337,7 @@
     <cellStyle name="Number [2]" xfId="1" xr:uid="{3BEB32D8-4A87-40D3-BABD-2F60E31C5054}"/>
     <cellStyle name="Number [2] 2" xfId="10" xr:uid="{08CCC1D1-61BC-4362-A100-826F9D15B0A8}"/>
   </cellStyles>
-  <dxfs count="22">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -4189,11 +4031,11 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>P2H: 2021-Q4</a:t>
+              <a:t>P2H: </a:t>
             </a:r>
             <a:r>
               <a:rPr lang="en-US" baseline="0"/>
-              <a:t> prices</a:t>
+              <a:t>prices</a:t>
             </a:r>
             <a:endParaRPr lang="en-US"/>
           </a:p>
@@ -4233,7 +4075,7 @@
       <c:layout/>
       <c:barChart>
         <c:barDir val="col"/>
-        <c:grouping val="stacked"/>
+        <c:grouping val="clustered"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
@@ -4244,16 +4086,15 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Sourcing</c:v>
+                  <c:v>Actual</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent5">
-                <a:lumMod val="60000"/>
-                <a:lumOff val="40000"/>
+              <a:schemeClr val="bg1">
+                <a:lumMod val="65000"/>
               </a:schemeClr>
             </a:solidFill>
             <a:ln>
@@ -4262,6 +4103,63 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>p2h_monthly!$A$5:$A$7</c:f>
@@ -4303,22 +4201,6 @@
             </c:ext>
           </c:extLst>
         </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="18"/>
-        <c:overlap val="100"/>
-        <c:axId val="1099546240"/>
-        <c:axId val="1099551232"/>
-      </c:barChart>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="2"/>
           <c:order val="1"/>
@@ -4328,26 +4210,81 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Tariff</c:v>
+                  <c:v>FSP2020</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="50000"/>
-                  <a:lumOff val="50000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
+            <a:solidFill>
+              <a:schemeClr val="accent4">
+                <a:lumMod val="40000"/>
+                <a:lumOff val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:val>
             <c:numRef>
               <c:f>p2h_monthly!$D$5:$D$7</c:f>
@@ -4366,7 +4303,6 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-71C4-4659-AF08-9F11493818B6}"/>
@@ -4381,11 +4317,10 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:marker val="1"/>
-        <c:smooth val="0"/>
+        <c:gapWidth val="150"/>
         <c:axId val="1099546240"/>
         <c:axId val="1099551232"/>
-      </c:lineChart>
+      </c:barChart>
       <c:catAx>
         <c:axId val="1099546240"/>
         <c:scaling>
@@ -4668,11 +4603,11 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>P2H: 2021-Q4</a:t>
+              <a:t>P2H: </a:t>
             </a:r>
             <a:r>
               <a:rPr lang="en-US" baseline="0"/>
-              <a:t> profit</a:t>
+              <a:t>sourcing result</a:t>
             </a:r>
             <a:endParaRPr lang="en-US"/>
           </a:p>
@@ -4703,7 +4638,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Costs</c:v>
+                  <c:v>Actual</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4766,7 +4701,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Revenue</c:v>
+                  <c:v>FSP2020</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4831,7 +4766,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>(Values: Profit)</c:v>
+                  <c:v>(Values: Net result)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4853,7 +4788,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{2324EAB7-7EE1-4706-8825-7FAF2096B5CD}" type="CELLRANGE">
+                    <a:fld id="{3AA199C4-59B5-4630-8C65-82B98F47C901}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4887,7 +4822,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{9D49FE01-A85B-4B9A-B884-208B8F5D96E8}" type="CELLRANGE">
+                    <a:fld id="{B4621F0F-1C11-453A-9DA3-AA2F99C6C956}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4921,7 +4856,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{63104252-F740-4460-AC08-0CE6AED81456}" type="CELLRANGE">
+                    <a:fld id="{436037BD-7A5F-41F0-8C10-60DED7A3592E}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -5807,7 +5742,7 @@
             </a:r>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>: 2021-Q4</a:t>
+              <a:t>:</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="en-US" baseline="0"/>
@@ -5851,7 +5786,7 @@
       <c:layout/>
       <c:barChart>
         <c:barDir val="col"/>
-        <c:grouping val="stacked"/>
+        <c:grouping val="clustered"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
@@ -5862,16 +5797,15 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Sourcing</c:v>
+                  <c:v>Actual</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent5">
-                <a:lumMod val="60000"/>
-                <a:lumOff val="40000"/>
+              <a:schemeClr val="bg1">
+                <a:lumMod val="65000"/>
               </a:schemeClr>
             </a:solidFill>
             <a:ln>
@@ -5880,6 +5814,63 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>gasb2c_monthly!$A$5:$A$7</c:f>
@@ -5921,22 +5912,6 @@
             </c:ext>
           </c:extLst>
         </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="18"/>
-        <c:overlap val="100"/>
-        <c:axId val="1099546240"/>
-        <c:axId val="1099551232"/>
-      </c:barChart>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="2"/>
           <c:order val="1"/>
@@ -5946,26 +5921,81 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Tariff</c:v>
+                  <c:v>FSP2020</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="50000"/>
-                  <a:lumOff val="50000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
+            <a:solidFill>
+              <a:schemeClr val="accent4">
+                <a:lumMod val="40000"/>
+                <a:lumOff val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:val>
             <c:numRef>
               <c:f>gasb2c_monthly!$D$5:$D$7</c:f>
@@ -5984,7 +6014,6 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-7DB7-4B30-A4C3-D6A7114B19C7}"/>
@@ -5999,11 +6028,10 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:marker val="1"/>
-        <c:smooth val="0"/>
+        <c:gapWidth val="150"/>
         <c:axId val="1099546240"/>
         <c:axId val="1099551232"/>
-      </c:lineChart>
+      </c:barChart>
       <c:catAx>
         <c:axId val="1099546240"/>
         <c:scaling>
@@ -6053,8 +6081,6 @@
         <c:auto val="0"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
-        <c:tickLblSkip val="1"/>
-        <c:tickMarkSkip val="1"/>
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
@@ -6292,11 +6318,11 @@
             </a:r>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>: 2021-Q4</a:t>
+              <a:t>: sourcing</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="en-US" baseline="0"/>
-              <a:t> profit</a:t>
+              <a:t> result</a:t>
             </a:r>
             <a:endParaRPr lang="en-US"/>
           </a:p>
@@ -6327,7 +6353,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Costs</c:v>
+                  <c:v>Actual</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -6390,7 +6416,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Revenue</c:v>
+                  <c:v>FSP2020</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -6455,7 +6481,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>(Values: Profit)</c:v>
+                  <c:v>(Values: Net result)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -6477,7 +6503,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{8750D4BC-6833-4F45-A33B-75C54ADD6BB0}" type="CELLRANGE">
+                    <a:fld id="{544C7D37-F8AE-4D98-A7C1-CA92D88E96AC}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -6511,7 +6537,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{3C7E466A-400D-4E4D-B9D5-67EB6A20F64D}" type="CELLRANGE">
+                    <a:fld id="{E62E0032-C51A-464A-A775-91F268D868E7}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -6545,7 +6571,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{389560B6-6DC7-44B1-A000-9CA398AE0F91}" type="CELLRANGE">
+                    <a:fld id="{5C404AEF-A3CA-47C5-B5F6-003C29B15095}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -6757,6 +6783,7 @@
         <c:crossAx val="1099546240"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
+        <c:majorUnit val="1000000"/>
         <c:dispUnits>
           <c:builtInUnit val="millions"/>
           <c:dispUnitsLbl>
@@ -10473,19 +10500,6 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="monthly"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -10923,7 +10937,7 @@
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A5" s="9">
+      <c r="A5" s="8">
         <v>44470</v>
       </c>
       <c r="B5" s="5">
@@ -10977,7 +10991,7 @@
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A6" s="9">
+      <c r="A6" s="8">
         <v>44471</v>
       </c>
       <c r="B6" s="5">
@@ -11031,7 +11045,7 @@
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A7" s="9">
+      <c r="A7" s="8">
         <v>44472</v>
       </c>
       <c r="B7" s="5">
@@ -11085,7 +11099,7 @@
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A8" s="9">
+      <c r="A8" s="8">
         <v>44473</v>
       </c>
       <c r="B8" s="5">
@@ -11139,7 +11153,7 @@
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A9" s="9">
+      <c r="A9" s="8">
         <v>44474</v>
       </c>
       <c r="B9" s="5">
@@ -11193,7 +11207,7 @@
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A10" s="9">
+      <c r="A10" s="8">
         <v>44475</v>
       </c>
       <c r="B10" s="5">
@@ -11247,7 +11261,7 @@
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A11" s="9">
+      <c r="A11" s="8">
         <v>44476</v>
       </c>
       <c r="B11" s="5">
@@ -11301,7 +11315,7 @@
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A12" s="9">
+      <c r="A12" s="8">
         <v>44477</v>
       </c>
       <c r="B12" s="5">
@@ -11355,7 +11369,7 @@
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A13" s="9">
+      <c r="A13" s="8">
         <v>44478</v>
       </c>
       <c r="B13" s="5">
@@ -11409,7 +11423,7 @@
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A14" s="9">
+      <c r="A14" s="8">
         <v>44479</v>
       </c>
       <c r="B14" s="5">
@@ -11463,7 +11477,7 @@
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A15" s="9">
+      <c r="A15" s="8">
         <v>44480</v>
       </c>
       <c r="B15" s="5">
@@ -11517,7 +11531,7 @@
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A16" s="9">
+      <c r="A16" s="8">
         <v>44481</v>
       </c>
       <c r="B16" s="5">
@@ -11571,7 +11585,7 @@
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A17" s="9">
+      <c r="A17" s="8">
         <v>44482</v>
       </c>
       <c r="B17" s="5">
@@ -11625,7 +11639,7 @@
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A18" s="9">
+      <c r="A18" s="8">
         <v>44483</v>
       </c>
       <c r="B18" s="5">
@@ -11679,7 +11693,7 @@
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A19" s="9">
+      <c r="A19" s="8">
         <v>44484</v>
       </c>
       <c r="B19" s="5">
@@ -11733,7 +11747,7 @@
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A20" s="9">
+      <c r="A20" s="8">
         <v>44485</v>
       </c>
       <c r="B20" s="5">
@@ -11787,7 +11801,7 @@
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A21" s="9">
+      <c r="A21" s="8">
         <v>44486</v>
       </c>
       <c r="B21" s="5">
@@ -11841,7 +11855,7 @@
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A22" s="9">
+      <c r="A22" s="8">
         <v>44487</v>
       </c>
       <c r="B22" s="5">
@@ -11895,7 +11909,7 @@
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A23" s="9">
+      <c r="A23" s="8">
         <v>44488</v>
       </c>
       <c r="B23" s="5">
@@ -11949,7 +11963,7 @@
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A24" s="9">
+      <c r="A24" s="8">
         <v>44489</v>
       </c>
       <c r="B24" s="5">
@@ -12003,7 +12017,7 @@
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A25" s="9">
+      <c r="A25" s="8">
         <v>44490</v>
       </c>
       <c r="B25" s="5">
@@ -12057,7 +12071,7 @@
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A26" s="9">
+      <c r="A26" s="8">
         <v>44491</v>
       </c>
       <c r="B26" s="5">
@@ -12111,7 +12125,7 @@
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A27" s="9">
+      <c r="A27" s="8">
         <v>44492</v>
       </c>
       <c r="B27" s="5">
@@ -12165,7 +12179,7 @@
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A28" s="9">
+      <c r="A28" s="8">
         <v>44493</v>
       </c>
       <c r="B28" s="5">
@@ -12219,7 +12233,7 @@
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A29" s="9">
+      <c r="A29" s="8">
         <v>44494</v>
       </c>
       <c r="B29" s="5">
@@ -12273,7 +12287,7 @@
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A30" s="9">
+      <c r="A30" s="8">
         <v>44495</v>
       </c>
       <c r="B30" s="5">
@@ -12327,7 +12341,7 @@
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A31" s="9">
+      <c r="A31" s="8">
         <v>44496</v>
       </c>
       <c r="B31" s="5">
@@ -12381,7 +12395,7 @@
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A32" s="9">
+      <c r="A32" s="8">
         <v>44497</v>
       </c>
       <c r="B32" s="5">
@@ -12435,7 +12449,7 @@
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A33" s="9">
+      <c r="A33" s="8">
         <v>44498</v>
       </c>
       <c r="B33" s="5">
@@ -12489,7 +12503,7 @@
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A34" s="9">
+      <c r="A34" s="8">
         <v>44499</v>
       </c>
       <c r="B34" s="5">
@@ -12543,7 +12557,7 @@
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A35" s="9">
+      <c r="A35" s="8">
         <v>44500</v>
       </c>
       <c r="B35" s="5">
@@ -12597,7 +12611,7 @@
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A36" s="9">
+      <c r="A36" s="8">
         <v>44501</v>
       </c>
       <c r="B36" s="5">
@@ -12651,7 +12665,7 @@
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A37" s="9">
+      <c r="A37" s="8">
         <v>44502</v>
       </c>
       <c r="B37" s="5">
@@ -12705,7 +12719,7 @@
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A38" s="9">
+      <c r="A38" s="8">
         <v>44503</v>
       </c>
       <c r="B38" s="5">
@@ -12759,7 +12773,7 @@
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A39" s="9">
+      <c r="A39" s="8">
         <v>44504</v>
       </c>
       <c r="B39" s="5">
@@ -12813,7 +12827,7 @@
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A40" s="9">
+      <c r="A40" s="8">
         <v>44505</v>
       </c>
       <c r="B40" s="5">
@@ -12867,7 +12881,7 @@
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A41" s="9">
+      <c r="A41" s="8">
         <v>44506</v>
       </c>
       <c r="B41" s="5">
@@ -12921,7 +12935,7 @@
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A42" s="9">
+      <c r="A42" s="8">
         <v>44507</v>
       </c>
       <c r="B42" s="5">
@@ -12975,7 +12989,7 @@
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A43" s="9">
+      <c r="A43" s="8">
         <v>44508</v>
       </c>
       <c r="B43" s="5">
@@ -13029,7 +13043,7 @@
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A44" s="9">
+      <c r="A44" s="8">
         <v>44509</v>
       </c>
       <c r="B44" s="5">
@@ -13083,7 +13097,7 @@
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A45" s="9">
+      <c r="A45" s="8">
         <v>44510</v>
       </c>
       <c r="B45" s="5">
@@ -13137,7 +13151,7 @@
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A46" s="9">
+      <c r="A46" s="8">
         <v>44511</v>
       </c>
       <c r="B46" s="5">
@@ -13191,7 +13205,7 @@
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A47" s="9">
+      <c r="A47" s="8">
         <v>44512</v>
       </c>
       <c r="B47" s="5">
@@ -13245,7 +13259,7 @@
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A48" s="9">
+      <c r="A48" s="8">
         <v>44513</v>
       </c>
       <c r="B48" s="5">
@@ -13299,7 +13313,7 @@
       </c>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A49" s="9">
+      <c r="A49" s="8">
         <v>44514</v>
       </c>
       <c r="B49" s="5">
@@ -13353,7 +13367,7 @@
       </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A50" s="9">
+      <c r="A50" s="8">
         <v>44515</v>
       </c>
       <c r="B50" s="5">
@@ -13407,7 +13421,7 @@
       </c>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A51" s="9">
+      <c r="A51" s="8">
         <v>44516</v>
       </c>
       <c r="B51" s="5">
@@ -13461,7 +13475,7 @@
       </c>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A52" s="9">
+      <c r="A52" s="8">
         <v>44517</v>
       </c>
       <c r="B52" s="5">
@@ -13515,7 +13529,7 @@
       </c>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A53" s="9">
+      <c r="A53" s="8">
         <v>44518</v>
       </c>
       <c r="B53" s="5">
@@ -13569,7 +13583,7 @@
       </c>
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A54" s="9">
+      <c r="A54" s="8">
         <v>44519</v>
       </c>
       <c r="B54" s="5">
@@ -13623,7 +13637,7 @@
       </c>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A55" s="9">
+      <c r="A55" s="8">
         <v>44520</v>
       </c>
       <c r="B55" s="5">
@@ -13677,7 +13691,7 @@
       </c>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A56" s="9">
+      <c r="A56" s="8">
         <v>44521</v>
       </c>
       <c r="B56" s="5">
@@ -13731,7 +13745,7 @@
       </c>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A57" s="9">
+      <c r="A57" s="8">
         <v>44522</v>
       </c>
       <c r="B57" s="5">
@@ -13785,7 +13799,7 @@
       </c>
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A58" s="9">
+      <c r="A58" s="8">
         <v>44523</v>
       </c>
       <c r="B58" s="5">
@@ -13839,7 +13853,7 @@
       </c>
     </row>
     <row r="59" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A59" s="9">
+      <c r="A59" s="8">
         <v>44524</v>
       </c>
       <c r="B59" s="5">
@@ -13893,7 +13907,7 @@
       </c>
     </row>
     <row r="60" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A60" s="9">
+      <c r="A60" s="8">
         <v>44525</v>
       </c>
       <c r="B60" s="5">
@@ -13947,7 +13961,7 @@
       </c>
     </row>
     <row r="61" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A61" s="9">
+      <c r="A61" s="8">
         <v>44526</v>
       </c>
       <c r="B61" s="5">
@@ -14001,7 +14015,7 @@
       </c>
     </row>
     <row r="62" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A62" s="9">
+      <c r="A62" s="8">
         <v>44527</v>
       </c>
       <c r="B62" s="5">
@@ -14055,7 +14069,7 @@
       </c>
     </row>
     <row r="63" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A63" s="9">
+      <c r="A63" s="8">
         <v>44528</v>
       </c>
       <c r="B63" s="5">
@@ -14109,7 +14123,7 @@
       </c>
     </row>
     <row r="64" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A64" s="9">
+      <c r="A64" s="8">
         <v>44529</v>
       </c>
       <c r="B64" s="5">
@@ -14163,7 +14177,7 @@
       </c>
     </row>
     <row r="65" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A65" s="9">
+      <c r="A65" s="8">
         <v>44530</v>
       </c>
       <c r="B65" s="5">
@@ -14217,7 +14231,7 @@
       </c>
     </row>
     <row r="66" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A66" s="9">
+      <c r="A66" s="8">
         <v>44531</v>
       </c>
       <c r="B66" s="5">
@@ -14271,7 +14285,7 @@
       </c>
     </row>
     <row r="67" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A67" s="9">
+      <c r="A67" s="8">
         <v>44532</v>
       </c>
       <c r="B67" s="5">
@@ -14325,7 +14339,7 @@
       </c>
     </row>
     <row r="68" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A68" s="9">
+      <c r="A68" s="8">
         <v>44533</v>
       </c>
       <c r="B68" s="5">
@@ -14379,7 +14393,7 @@
       </c>
     </row>
     <row r="69" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A69" s="9">
+      <c r="A69" s="8">
         <v>44534</v>
       </c>
       <c r="B69" s="5">
@@ -14433,7 +14447,7 @@
       </c>
     </row>
     <row r="70" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A70" s="9">
+      <c r="A70" s="8">
         <v>44535</v>
       </c>
       <c r="B70" s="5">
@@ -14487,7 +14501,7 @@
       </c>
     </row>
     <row r="71" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A71" s="9">
+      <c r="A71" s="8">
         <v>44536</v>
       </c>
       <c r="B71" s="5">
@@ -14541,7 +14555,7 @@
       </c>
     </row>
     <row r="72" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A72" s="9">
+      <c r="A72" s="8">
         <v>44537</v>
       </c>
       <c r="B72" s="5">
@@ -14595,7 +14609,7 @@
       </c>
     </row>
     <row r="73" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A73" s="9">
+      <c r="A73" s="8">
         <v>44538</v>
       </c>
       <c r="B73" s="5">
@@ -14649,7 +14663,7 @@
       </c>
     </row>
     <row r="74" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A74" s="9">
+      <c r="A74" s="8">
         <v>44539</v>
       </c>
       <c r="B74" s="5">
@@ -14703,7 +14717,7 @@
       </c>
     </row>
     <row r="75" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A75" s="9">
+      <c r="A75" s="8">
         <v>44540</v>
       </c>
       <c r="B75" s="5">
@@ -14757,7 +14771,7 @@
       </c>
     </row>
     <row r="76" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A76" s="9">
+      <c r="A76" s="8">
         <v>44541</v>
       </c>
       <c r="B76" s="5">
@@ -14811,7 +14825,7 @@
       </c>
     </row>
     <row r="77" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A77" s="9">
+      <c r="A77" s="8">
         <v>44542</v>
       </c>
       <c r="B77" s="5">
@@ -14865,7 +14879,7 @@
       </c>
     </row>
     <row r="78" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A78" s="9">
+      <c r="A78" s="8">
         <v>44543</v>
       </c>
       <c r="B78" s="5">
@@ -14919,7 +14933,7 @@
       </c>
     </row>
     <row r="79" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A79" s="9">
+      <c r="A79" s="8">
         <v>44544</v>
       </c>
       <c r="B79" s="5">
@@ -14973,7 +14987,7 @@
       </c>
     </row>
     <row r="80" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A80" s="9">
+      <c r="A80" s="8">
         <v>44545</v>
       </c>
       <c r="B80" s="5">
@@ -15027,7 +15041,7 @@
       </c>
     </row>
     <row r="81" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A81" s="9">
+      <c r="A81" s="8">
         <v>44546</v>
       </c>
       <c r="B81" s="5">
@@ -15081,7 +15095,7 @@
       </c>
     </row>
     <row r="82" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A82" s="9">
+      <c r="A82" s="8">
         <v>44547</v>
       </c>
       <c r="B82" s="5">
@@ -15135,7 +15149,7 @@
       </c>
     </row>
     <row r="83" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A83" s="9">
+      <c r="A83" s="8">
         <v>44548</v>
       </c>
       <c r="B83" s="5">
@@ -15189,7 +15203,7 @@
       </c>
     </row>
     <row r="84" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A84" s="9">
+      <c r="A84" s="8">
         <v>44549</v>
       </c>
       <c r="B84" s="5">
@@ -15243,7 +15257,7 @@
       </c>
     </row>
     <row r="85" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A85" s="9">
+      <c r="A85" s="8">
         <v>44550</v>
       </c>
       <c r="B85" s="5">
@@ -15297,7 +15311,7 @@
       </c>
     </row>
     <row r="86" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A86" s="9">
+      <c r="A86" s="8">
         <v>44551</v>
       </c>
       <c r="B86" s="5">
@@ -15351,7 +15365,7 @@
       </c>
     </row>
     <row r="87" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A87" s="9">
+      <c r="A87" s="8">
         <v>44552</v>
       </c>
       <c r="B87" s="5">
@@ -15405,7 +15419,7 @@
       </c>
     </row>
     <row r="88" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A88" s="9">
+      <c r="A88" s="8">
         <v>44553</v>
       </c>
       <c r="B88" s="5">
@@ -15459,7 +15473,7 @@
       </c>
     </row>
     <row r="89" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A89" s="9">
+      <c r="A89" s="8">
         <v>44554</v>
       </c>
       <c r="B89" s="5">
@@ -15513,7 +15527,7 @@
       </c>
     </row>
     <row r="90" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A90" s="9">
+      <c r="A90" s="8">
         <v>44555</v>
       </c>
       <c r="B90" s="5">
@@ -15567,7 +15581,7 @@
       </c>
     </row>
     <row r="91" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A91" s="9">
+      <c r="A91" s="8">
         <v>44556</v>
       </c>
       <c r="B91" s="5">
@@ -15621,7 +15635,7 @@
       </c>
     </row>
     <row r="92" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A92" s="9">
+      <c r="A92" s="8">
         <v>44557</v>
       </c>
       <c r="B92" s="5">
@@ -15675,7 +15689,7 @@
       </c>
     </row>
     <row r="93" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A93" s="9">
+      <c r="A93" s="8">
         <v>44558</v>
       </c>
       <c r="B93" s="5">
@@ -15729,7 +15743,7 @@
       </c>
     </row>
     <row r="94" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A94" s="9">
+      <c r="A94" s="8">
         <v>44559</v>
       </c>
       <c r="B94" s="5">
@@ -15783,7 +15797,7 @@
       </c>
     </row>
     <row r="95" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A95" s="9">
+      <c r="A95" s="8">
         <v>44560</v>
       </c>
       <c r="B95" s="5">
@@ -15837,7 +15851,7 @@
       </c>
     </row>
     <row r="96" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A96" s="9">
+      <c r="A96" s="8">
         <v>44561</v>
       </c>
       <c r="B96" s="5">
@@ -15899,16 +15913,19 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
-  <drawing r:id="rId2"/>
+  <customProperties>
+    <customPr name="ID" r:id="rId2"/>
+  </customProperties>
+  <drawing r:id="rId3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1F83D0D-7F8A-45BB-AA60-2909196F9AE8}">
-  <dimension ref="A1:T8"/>
+  <dimension ref="A1:T10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15937,8 +15954,8 @@
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
-      <c r="I1" s="12" t="s">
-        <v>14</v>
+      <c r="I1" s="11" t="s">
+        <v>40</v>
       </c>
       <c r="J1" s="11"/>
       <c r="K1" s="11"/>
@@ -15964,8 +15981,8 @@
       <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="7" t="s">
-        <v>13</v>
+      <c r="D2" s="10" t="s">
+        <v>42</v>
       </c>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
@@ -16066,7 +16083,7 @@
       </c>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A5" s="10" t="s">
+      <c r="A5" s="9" t="s">
         <v>15</v>
       </c>
       <c r="B5" s="5">
@@ -16132,7 +16149,7 @@
       </c>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A6" s="10" t="s">
+      <c r="A6" s="9" t="s">
         <v>16</v>
       </c>
       <c r="B6" s="5">
@@ -16198,7 +16215,7 @@
       </c>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A7" s="10" t="s">
+      <c r="A7" s="9" t="s">
         <v>17</v>
       </c>
       <c r="B7" s="5">
@@ -16265,16 +16282,22 @@
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="F8" s="5" t="s">
-        <v>19</v>
+        <v>42</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="L8" t="s">
-        <v>18</v>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="E10">
+        <f>SUM(E5:E7)/SUM(C5:C7)</f>
+        <v>41.857512575109318</v>
       </c>
     </row>
   </sheetData>
@@ -16286,7 +16309,10 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
-  <drawing r:id="rId2"/>
+  <customProperties>
+    <customPr name="ID" r:id="rId2"/>
+  </customProperties>
+  <drawing r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -16294,8 +16320,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC4367F1-44C0-474A-B4E2-3C6FAD5D0552}">
   <dimension ref="A1:T56"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="T26" sqref="T26"/>
+    <sheetView topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="N17" sqref="N17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16328,8 +16354,8 @@
       <c r="F1" s="4"/>
       <c r="G1" s="4"/>
       <c r="H1" s="4"/>
-      <c r="I1" s="12" t="s">
-        <v>14</v>
+      <c r="I1" s="11" t="s">
+        <v>40</v>
       </c>
       <c r="J1" s="11"/>
       <c r="K1" s="11"/>
@@ -16355,8 +16381,8 @@
       <c r="C2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="8" t="s">
-        <v>13</v>
+      <c r="D2" s="10" t="s">
+        <v>42</v>
       </c>
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>
@@ -16457,7 +16483,7 @@
       </c>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A5" s="10" t="s">
+      <c r="A5" s="9" t="s">
         <v>15</v>
       </c>
       <c r="C5" s="5">
@@ -16524,7 +16550,7 @@
       </c>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A6" s="10" t="s">
+      <c r="A6" s="9" t="s">
         <v>16</v>
       </c>
       <c r="C6" s="5">
@@ -16552,7 +16578,7 @@
         <v>2234099.6853750218</v>
       </c>
       <c r="J6" s="5">
-        <f t="shared" ref="J6:J8" si="5">N6+R6</f>
+        <f t="shared" ref="J6:J7" si="5">N6+R6</f>
         <v>109092.05698868861</v>
       </c>
       <c r="K6" s="3">
@@ -16591,7 +16617,7 @@
       </c>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A7" s="10" t="s">
+      <c r="A7" s="9" t="s">
         <v>17</v>
       </c>
       <c r="C7" s="5">
@@ -16659,62 +16685,62 @@
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="F8" s="5" t="s">
-        <v>19</v>
+        <v>42</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="J8" s="5"/>
       <c r="L8" t="s">
-        <v>18</v>
+        <v>40</v>
       </c>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="E11" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="I11" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="E13" t="s">
         <v>7</v>
       </c>
       <c r="F13" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="G13" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="I13" t="s">
         <v>7</v>
       </c>
       <c r="J13" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="K13" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="M13" t="s">
         <v>7</v>
       </c>
       <c r="N13" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="O13" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D14">
         <v>3</v>
@@ -16749,7 +16775,7 @@
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E15" s="5">
         <f>SUM(E16:E26)</f>
@@ -16789,10 +16815,10 @@
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D16" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E16" s="5">
         <v>68540</v>
@@ -16862,10 +16888,10 @@
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C18" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E18" s="5">
         <v>424.95600000000002</v>
@@ -16899,7 +16925,7 @@
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E19" s="5">
         <v>0</v>
@@ -16908,13 +16934,13 @@
         <v>0</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="H19" s="5"/>
       <c r="I19" s="5"/>
       <c r="J19" s="5"/>
       <c r="K19" s="3" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="L19" s="5"/>
       <c r="M19" s="5">
@@ -16927,7 +16953,7 @@
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E20" s="5">
         <v>0</v>
@@ -16936,13 +16962,13 @@
         <v>0</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="H20" s="5"/>
       <c r="I20" s="5"/>
       <c r="J20" s="5"/>
       <c r="K20" s="3" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="L20" s="5"/>
       <c r="M20" s="5">
@@ -16955,7 +16981,7 @@
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="E21" s="5">
         <v>0</v>
@@ -16964,13 +16990,13 @@
         <v>0</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="H21" s="5"/>
       <c r="I21" s="5"/>
       <c r="J21" s="5"/>
       <c r="K21" s="3" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="L21" s="5"/>
       <c r="M21" s="5">
@@ -16983,7 +17009,7 @@
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E22" s="5">
         <v>0</v>
@@ -16992,13 +17018,13 @@
         <v>0</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="H22" s="5"/>
       <c r="I22" s="5"/>
       <c r="J22" s="5"/>
       <c r="K22" s="3" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="L22" s="5"/>
       <c r="M22" s="5">
@@ -17011,23 +17037,23 @@
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C23" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E23" s="5"/>
       <c r="F23" s="5">
         <v>0</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="H23" s="5"/>
       <c r="I23" s="5"/>
       <c r="J23" s="5"/>
       <c r="K23" s="3" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="L23" s="5"/>
       <c r="M23" s="5"/>
@@ -17038,14 +17064,14 @@
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="E24" s="5"/>
       <c r="F24" s="5">
         <v>0</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="H24" s="5"/>
       <c r="I24" s="5"/>
@@ -17060,20 +17086,20 @@
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E25" s="5"/>
       <c r="F25" s="5">
         <v>0</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="H25" s="5"/>
       <c r="I25" s="5"/>
       <c r="J25" s="5"/>
       <c r="K25" s="3" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="L25" s="5"/>
       <c r="M25" s="5"/>
@@ -17084,7 +17110,7 @@
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E26" s="5"/>
       <c r="F26" s="5"/>
@@ -17095,7 +17121,7 @@
         <v>29468.838518497476</v>
       </c>
       <c r="K26" s="3" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="L26" s="5"/>
       <c r="M26" s="5"/>
@@ -17119,41 +17145,41 @@
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="E28" s="5" t="s">
         <v>7</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="H28" s="5"/>
       <c r="I28" s="5" t="s">
         <v>7</v>
       </c>
       <c r="J28" s="5" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="K28" s="5" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="L28" s="5"/>
       <c r="M28" s="5" t="s">
         <v>7</v>
       </c>
       <c r="N28" s="5" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="O28" s="5" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D29">
         <v>3</v>
@@ -17192,7 +17218,7 @@
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E30" s="5">
         <f>SUM(E31:E41)</f>
@@ -17236,10 +17262,10 @@
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D31" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E31" s="5">
         <v>108000</v>
@@ -17311,10 +17337,10 @@
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C33" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E33" s="5">
         <v>4601.3040000000001</v>
@@ -17348,7 +17374,7 @@
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.25">
       <c r="C34" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E34" s="5">
         <v>0</v>
@@ -17357,13 +17383,13 @@
         <v>0</v>
       </c>
       <c r="G34" s="3" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="H34" s="5"/>
       <c r="I34" s="5"/>
       <c r="J34" s="5"/>
       <c r="K34" s="3" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="L34" s="5"/>
       <c r="M34" s="5">
@@ -17376,7 +17402,7 @@
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.25">
       <c r="C35" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E35" s="5">
         <v>0</v>
@@ -17385,13 +17411,13 @@
         <v>0</v>
       </c>
       <c r="G35" s="3" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="H35" s="5"/>
       <c r="I35" s="5"/>
       <c r="J35" s="5"/>
       <c r="K35" s="3" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="L35" s="5"/>
       <c r="M35" s="5">
@@ -17404,7 +17430,7 @@
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="E36" s="5">
         <v>0</v>
@@ -17413,13 +17439,13 @@
         <v>0</v>
       </c>
       <c r="G36" s="3" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="H36" s="5"/>
       <c r="I36" s="5"/>
       <c r="J36" s="5"/>
       <c r="K36" s="3" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="L36" s="5"/>
       <c r="M36" s="5">
@@ -17432,7 +17458,7 @@
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E37" s="5">
         <v>0</v>
@@ -17441,13 +17467,13 @@
         <v>0</v>
       </c>
       <c r="G37" s="3" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="H37" s="5"/>
       <c r="I37" s="5"/>
       <c r="J37" s="5"/>
       <c r="K37" s="3" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="L37" s="5"/>
       <c r="M37" s="5">
@@ -17460,23 +17486,23 @@
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C38" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E38" s="5"/>
       <c r="F38" s="5">
         <v>0</v>
       </c>
       <c r="G38" s="3" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="H38" s="5"/>
       <c r="I38" s="5"/>
       <c r="J38" s="5"/>
       <c r="K38" s="3" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="L38" s="5"/>
       <c r="M38" s="5"/>
@@ -17487,14 +17513,14 @@
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.25">
       <c r="C39" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="E39" s="5"/>
       <c r="F39" s="5">
         <v>0</v>
       </c>
       <c r="G39" s="3" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="H39" s="5"/>
       <c r="I39" s="5"/>
@@ -17509,20 +17535,20 @@
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.25">
       <c r="C40" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E40" s="5"/>
       <c r="F40" s="5">
         <v>0</v>
       </c>
       <c r="G40" s="3" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="H40" s="5"/>
       <c r="I40" s="5"/>
       <c r="J40" s="5"/>
       <c r="K40" s="3" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="L40" s="5"/>
       <c r="M40" s="5"/>
@@ -17533,7 +17559,7 @@
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.25">
       <c r="C41" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E41" s="5"/>
       <c r="F41" s="5"/>
@@ -17544,7 +17570,7 @@
         <v>78426.584619157133</v>
       </c>
       <c r="K41" s="3" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="L41" s="5"/>
       <c r="M41" s="5"/>
@@ -17568,41 +17594,41 @@
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="E43" s="5" t="s">
         <v>7</v>
       </c>
       <c r="F43" s="5" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="G43" s="3" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="H43" s="5"/>
       <c r="I43" s="5" t="s">
         <v>7</v>
       </c>
       <c r="J43" s="5" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="K43" s="3" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="L43" s="5"/>
       <c r="M43" s="5" t="s">
         <v>7</v>
       </c>
       <c r="N43" s="5" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="O43" s="5" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.25">
       <c r="C44" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D44">
         <v>3</v>
@@ -17639,7 +17665,7 @@
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E45" s="5">
         <f>SUM(E46:E56)</f>
@@ -17681,10 +17707,10 @@
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.25">
       <c r="C46" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D46" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E46" s="5">
         <v>127968</v>
@@ -17754,10 +17780,10 @@
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B48" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C48" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E48" s="5">
         <v>6876.5910000000003</v>
@@ -17791,7 +17817,7 @@
     </row>
     <row r="49" spans="2:15" x14ac:dyDescent="0.25">
       <c r="C49" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E49" s="5">
         <v>0</v>
@@ -17800,13 +17826,13 @@
         <v>0</v>
       </c>
       <c r="G49" s="3" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="H49" s="5"/>
       <c r="I49" s="5"/>
       <c r="J49" s="5"/>
       <c r="K49" s="3" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="L49" s="5"/>
       <c r="M49" s="5">
@@ -17819,7 +17845,7 @@
     </row>
     <row r="50" spans="2:15" x14ac:dyDescent="0.25">
       <c r="C50" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E50" s="5">
         <v>0</v>
@@ -17828,13 +17854,13 @@
         <v>0</v>
       </c>
       <c r="G50" s="3" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="H50" s="5"/>
       <c r="I50" s="5"/>
       <c r="J50" s="5"/>
       <c r="K50" s="3" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="L50" s="5"/>
       <c r="M50" s="5">
@@ -17847,7 +17873,7 @@
     </row>
     <row r="51" spans="2:15" x14ac:dyDescent="0.25">
       <c r="C51" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="E51" s="5">
         <v>0</v>
@@ -17856,13 +17882,13 @@
         <v>0</v>
       </c>
       <c r="G51" s="3" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="H51" s="5"/>
       <c r="I51" s="5"/>
       <c r="J51" s="5"/>
       <c r="K51" s="3" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="L51" s="5"/>
       <c r="M51" s="5">
@@ -17875,7 +17901,7 @@
     </row>
     <row r="52" spans="2:15" x14ac:dyDescent="0.25">
       <c r="C52" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E52" s="5">
         <v>0</v>
@@ -17884,13 +17910,13 @@
         <v>0</v>
       </c>
       <c r="G52" s="3" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="H52" s="5"/>
       <c r="I52" s="5"/>
       <c r="J52" s="5"/>
       <c r="K52" s="5" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="L52" s="5"/>
       <c r="M52" s="5">
@@ -17903,23 +17929,23 @@
     </row>
     <row r="53" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B53" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C53" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E53" s="5"/>
       <c r="F53" s="5">
         <v>0</v>
       </c>
       <c r="G53" s="3" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="H53" s="5"/>
       <c r="I53" s="5"/>
       <c r="J53" s="5"/>
       <c r="K53" s="5" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="L53" s="5"/>
       <c r="M53" s="5"/>
@@ -17930,14 +17956,14 @@
     </row>
     <row r="54" spans="2:15" x14ac:dyDescent="0.25">
       <c r="C54" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="E54" s="5"/>
       <c r="F54" s="5">
         <v>0</v>
       </c>
       <c r="G54" s="3" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="H54" s="5"/>
       <c r="I54" s="5"/>
@@ -17952,20 +17978,20 @@
     </row>
     <row r="55" spans="2:15" x14ac:dyDescent="0.25">
       <c r="C55" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E55" s="5"/>
       <c r="F55" s="5">
         <v>0</v>
       </c>
       <c r="G55" s="3" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="H55" s="5"/>
       <c r="I55" s="5"/>
       <c r="J55" s="5"/>
       <c r="K55" s="5" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="L55" s="5"/>
       <c r="M55" s="5"/>
@@ -17976,7 +18002,7 @@
     </row>
     <row r="56" spans="2:15" x14ac:dyDescent="0.25">
       <c r="C56" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E56" s="5"/>
       <c r="F56" s="5"/>
@@ -17987,7 +18013,7 @@
         <v>106060.07235057396</v>
       </c>
       <c r="K56" s="5" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="L56" s="5"/>
       <c r="M56" s="5"/>
@@ -18005,6 +18031,9 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
-  <drawing r:id="rId2"/>
+  <customProperties>
+    <customPr name="ID" r:id="rId2"/>
+  </customProperties>
+  <drawing r:id="rId3"/>
 </worksheet>
 </file>